--- a/data/trans_orig/P21C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DD1408-A76B-4590-9021-FA8B1FA74048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03BB72E-BF47-41E4-91B0-DE5CC2A94C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78928CE3-5CD5-43DA-AB57-169BBE10E476}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71C61C7C-460C-4321-A0DF-441BD7680E06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -77,223 +77,223 @@
     <t>87,72%</t>
   </si>
   <si>
-    <t>80,73%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>Se lo mandó el médico</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>Se lo mandó el médico</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>20,75%</t>
   </si>
   <si>
     <t>88,05%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,637 +305,631 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>75,4%</t>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>93,74%</t>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>73,34%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8A9C57-A876-443B-B283-6E7C1E49EABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB8EB6-8F47-4503-96EA-01C97DBA39DB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F6A422-1873-4538-B53B-60CF702FE6F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BA4D0A-226D-4426-B08A-0434CA28E515}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2702,13 +2696,13 @@
         <v>519493</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>810</v>
@@ -2717,13 +2711,13 @@
         <v>866201</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2732,13 @@
         <v>64871</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2753,13 +2747,13 @@
         <v>86685</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -2768,13 +2762,13 @@
         <v>151556</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA61FDC-0ABD-449C-99EF-6C0F65B697C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF252E8-16AB-4685-B27A-81AEE727F045}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2967,13 @@
         <v>71324</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -2988,13 +2982,13 @@
         <v>117866</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -3003,13 +2997,13 @@
         <v>189190</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3018,13 @@
         <v>17790</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3039,13 +3033,13 @@
         <v>21730</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -3054,13 +3048,13 @@
         <v>39520</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3122,13 @@
         <v>161407</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -3143,13 +3137,13 @@
         <v>170830</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>310</v>
@@ -3158,13 +3152,13 @@
         <v>332237</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3173,13 @@
         <v>33003</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -3194,13 +3188,13 @@
         <v>39766</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -3209,13 +3203,13 @@
         <v>72769</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3277,13 @@
         <v>37407</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3298,13 +3292,13 @@
         <v>53861</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3313,13 +3307,13 @@
         <v>91268</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3328,13 @@
         <v>8444</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3349,13 +3343,13 @@
         <v>10750</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3364,13 +3358,13 @@
         <v>19194</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3432,13 @@
         <v>270138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -3453,13 +3447,13 @@
         <v>342556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>565</v>
@@ -3468,13 +3462,13 @@
         <v>612695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3483,13 @@
         <v>59237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -3504,13 +3498,13 @@
         <v>72246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -3519,13 +3513,13 @@
         <v>131483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA79C1-42A1-4BB0-8E16-F770A6F97572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E7026-AFF3-45EB-A19F-0F038B3FB736}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3718,13 @@
         <v>88140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>282</v>
@@ -3739,13 +3733,13 @@
         <v>159006</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>396</v>
@@ -3754,13 +3748,13 @@
         <v>247146</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3769,13 @@
         <v>15420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3790,13 +3784,13 @@
         <v>34150</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -3805,13 +3799,13 @@
         <v>49570</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3873,13 @@
         <v>270137</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3894,13 +3888,13 @@
         <v>307792</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>676</v>
@@ -3909,13 +3903,13 @@
         <v>577930</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3924,13 @@
         <v>26766</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3945,13 +3939,13 @@
         <v>151210</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -3960,13 +3954,13 @@
         <v>177975</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4028,13 @@
         <v>89181</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -4049,13 +4043,13 @@
         <v>91983</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>213</v>
@@ -4064,13 +4058,13 @@
         <v>181165</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4079,13 @@
         <v>2552</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -4100,13 +4094,13 @@
         <v>17781</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4115,13 +4109,13 @@
         <v>20332</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4183,13 @@
         <v>447458</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>826</v>
@@ -4204,13 +4198,13 @@
         <v>558782</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1285</v>
@@ -4219,13 +4213,13 @@
         <v>1006240</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4234,13 @@
         <v>44737</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -4255,13 +4249,13 @@
         <v>203140</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -4270,13 +4264,13 @@
         <v>247877</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03BB72E-BF47-41E4-91B0-DE5CC2A94C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D533FB-1579-4138-8734-B38511D19C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71C61C7C-460C-4321-A0DF-441BD7680E06}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5CDA7F5-71DB-4982-A1D7-8918CDF162D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -77,835 +77,829 @@
     <t>87,72%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>82,48%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>Se lo mandó el médico</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>Se lo mandó el médico</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2016 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
   </si>
   <si>
     <t>6,5%</t>
@@ -1341,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB8EB6-8F47-4503-96EA-01C97DBA39DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8215C-C20C-4D94-92AA-C646FD4D198E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BA4D0A-226D-4426-B08A-0434CA28E515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD364A-692D-4BE5-BD77-3C80060A185D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2696,10 +2690,10 @@
         <v>519493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>145</v>
@@ -2747,13 +2741,13 @@
         <v>86685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -2843,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF252E8-16AB-4685-B27A-81AEE727F045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FAFAF8-97BD-4C21-87C2-BA381B617DF1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3122,13 +3116,13 @@
         <v>161407</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -3137,13 +3131,13 @@
         <v>170830</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>310</v>
@@ -3152,13 +3146,13 @@
         <v>332237</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3167,13 @@
         <v>33003</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -3188,13 +3182,13 @@
         <v>39766</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -3203,13 +3197,13 @@
         <v>72769</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3271,13 @@
         <v>37407</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3292,13 +3286,13 @@
         <v>53861</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3307,13 +3301,13 @@
         <v>91268</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3322,13 @@
         <v>8444</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3343,13 +3337,13 @@
         <v>10750</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3358,13 +3352,13 @@
         <v>19194</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3426,13 @@
         <v>270138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -3447,13 +3441,13 @@
         <v>342556</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>565</v>
@@ -3462,13 +3456,13 @@
         <v>612695</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3477,13 @@
         <v>59237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -3498,13 +3492,13 @@
         <v>72246</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -3513,13 +3507,13 @@
         <v>131483</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E7026-AFF3-45EB-A19F-0F038B3FB736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98615E79-3B83-4328-99EA-AFCCFD56BF6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3721,10 +3715,10 @@
         <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>282</v>
@@ -3733,13 +3727,13 @@
         <v>159006</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>396</v>
@@ -3748,13 +3742,13 @@
         <v>247146</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3766,10 @@
         <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3784,13 +3778,13 @@
         <v>34150</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -3799,13 +3793,13 @@
         <v>49570</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3867,13 @@
         <v>270137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3888,13 +3882,13 @@
         <v>307792</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>676</v>
@@ -3903,13 +3897,13 @@
         <v>577930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3918,13 @@
         <v>26766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3939,13 +3933,13 @@
         <v>151210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -3954,13 +3948,13 @@
         <v>177975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4022,13 @@
         <v>89181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -4043,13 +4037,13 @@
         <v>91983</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>213</v>
@@ -4058,13 +4052,13 @@
         <v>181165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4073,13 @@
         <v>2552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -4094,13 +4088,13 @@
         <v>17781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4109,13 +4103,13 @@
         <v>20332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4177,13 @@
         <v>447458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>826</v>
@@ -4198,13 +4192,13 @@
         <v>558782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>1285</v>
@@ -4213,13 +4207,13 @@
         <v>1006240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4228,13 @@
         <v>44737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -4249,13 +4243,13 @@
         <v>203140</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -4264,13 +4258,13 @@
         <v>247877</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
